--- a/Ondas.xlsx
+++ b/Ondas.xlsx
@@ -5,15 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="4905"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="g">Sheet1!$A$9</definedName>
+    <definedName name="I_0">Sheet1!$A$12</definedName>
+    <definedName name="k">Sheet1!$D$11</definedName>
+    <definedName name="L">Sheet1!$A$11</definedName>
+    <definedName name="Lf">Sheet1!$R$3</definedName>
+    <definedName name="m">Sheet1!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Parte 1</t>
   </si>
@@ -51,6 +59,108 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>I_0</t>
+  </si>
+  <si>
+    <t>Parte 3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T-5</t>
+  </si>
+  <si>
+    <t>T-6</t>
+  </si>
+  <si>
+    <t>T-7</t>
+  </si>
+  <si>
+    <t>T-8</t>
+  </si>
+  <si>
+    <t>T-9</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>T+</t>
+  </si>
+  <si>
+    <t>T-</t>
+  </si>
+  <si>
+    <t>w+</t>
+  </si>
+  <si>
+    <t>w-</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>Parte 4</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Lf</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>W+</t>
+  </si>
+  <si>
+    <t>W-</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>tp</t>
   </si>
 </sst>
 </file>
@@ -402,23 +512,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.78</v>
       </c>
@@ -428,8 +544,29 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.0599999999999996</v>
       </c>
@@ -439,32 +576,163 @@
       <c r="F3">
         <v>0.19040000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="I3">
+        <v>9.76</v>
+      </c>
+      <c r="J3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>9.82</v>
+      </c>
+      <c r="M3">
+        <v>9.99</v>
+      </c>
+      <c r="N3">
+        <v>10.1</v>
+      </c>
+      <c r="R3">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.1100000000000003</v>
       </c>
       <c r="D4">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>9.93</v>
+      </c>
+      <c r="I4">
+        <v>9.85</v>
+      </c>
+      <c r="J4">
+        <v>9.68</v>
+      </c>
+      <c r="K4">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="L4">
+        <v>10.14</v>
+      </c>
+      <c r="M4">
+        <v>10.18</v>
+      </c>
+      <c r="N4">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0599999999999996</v>
       </c>
       <c r="D5">
         <v>12.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(H3:H4)</f>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(I3:I4)</f>
+        <v>9.8049999999999997</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(J3:J4)</f>
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(K3:K4)</f>
+        <v>10.02</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(L3:L4)</f>
+        <v>9.98</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(M3:M4)</f>
+        <v>10.085000000000001</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(N3:N4)</f>
+        <v>10.135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.95</v>
       </c>
       <c r="D6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <f>H5/8</f>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:N6" si="0">I5/8</f>
+        <v>1.225625</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.2225000000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.2524999999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.2475000000000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.2606250000000001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.266875</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>4.9919999999999991</v>
@@ -479,8 +747,66 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <f>2*PI()/H6</f>
+        <v>5.0773214603471413</v>
+      </c>
+      <c r="I7">
+        <f>2*PI()/I6</f>
+        <v>5.1265152939762055</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:N7" si="1">2*PI()/J6</f>
+        <v>5.1396198831734852</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>5.016515215313043</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>5.0366214887211109</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>4.9841826928544064</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>4.9595937303834923</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f>6.23/5</f>
+        <v>1.246</v>
+      </c>
+      <c r="T7">
+        <f>5.63/5</f>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="U7">
+        <f>2*PI()/S7</f>
+        <v>5.0426848372227822</v>
+      </c>
+      <c r="V7">
+        <f>2*PI()/T7</f>
+        <v>5.5800935232500768</v>
+      </c>
+      <c r="W7">
+        <f>SQRT(Lf*m*g/(I_0*COS(R7*PI()/180)) + 2*k*Lf*Lf*COS(R7*PI()/180)*COS(R7*PI()/180)/I_0)</f>
+        <v>1.7590313017613135</v>
+      </c>
+      <c r="X7">
+        <f>SQRT(Lf*m*g/(I_0*COS(R7*PI()/180)) + 2*k*Lf*Lf*SIN(R7*PI()/180)*SIN(R7*PI()/180)/I_0)</f>
+        <v>0.81440531052651122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7/4</f>
         <v>1.2479999999999998</v>
@@ -495,8 +821,54 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="U8" t="e">
+        <f>2*PI()/S8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" t="e">
+        <f>2*PI()/T8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8">
+        <f>SQRT(Lf*m*g/(I_0*COS(R8*PI()/180)) + 2*k*Lf*Lf*COS(R8*PI()/180)*COS(R8*PI()/180)/I_0)</f>
+        <v>1.7452682805660793</v>
+      </c>
+      <c r="X8">
+        <f>SQRT(Lf*m*g/(I_0*COS(R8*PI()/180)) + 2*k*Lf*Lf*SIN(R8*PI()/180)*SIN(R8*PI()/180)/I_0)</f>
+        <v>0.85228521405038749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.7680000000000007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="D9">
         <f>2*PI()/D8</f>
         <v>10.340989643152708</v>
@@ -504,8 +876,62 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J9">
+        <v>8.15</v>
+      </c>
+      <c r="K9">
+        <v>8.09</v>
+      </c>
+      <c r="L9">
+        <v>7.55</v>
+      </c>
+      <c r="M9">
+        <v>7.26</v>
+      </c>
+      <c r="N9">
+        <v>6.78</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <f>6.17/5</f>
+        <v>1.234</v>
+      </c>
+      <c r="T9">
+        <f>5.71/5</f>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="U9">
+        <f>2*PI()/S9</f>
+        <v>5.0917222910693569</v>
+      </c>
+      <c r="V9">
+        <f>2*PI()/T9</f>
+        <v>5.5019135789663629</v>
+      </c>
+      <c r="W9">
+        <f>SQRT(Lf*m*g/(I_0*COS(R9*PI()/180)) + 2*k*Lf*Lf*COS(R9*PI()/180)*COS(R9*PI()/180)/I_0)</f>
+        <v>1.7227258725566674</v>
+      </c>
+      <c r="X9">
+        <f>SQRT(Lf*m*g/(I_0*COS(R9*PI()/180)) + 2*k*Lf*Lf*SIN(R9*PI()/180)*SIN(R9*PI()/180)/I_0)</f>
+        <v>0.91107407621608849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="D10">
         <f>D9*D9</f>
         <v>106.93606679979158</v>
@@ -513,14 +939,491 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>9.09</v>
+      </c>
+      <c r="I10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J10">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="K10">
+        <v>7.87</v>
+      </c>
+      <c r="L10">
+        <v>7.62</v>
+      </c>
+      <c r="M10">
+        <v>7.29</v>
+      </c>
+      <c r="N10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11">
         <f>D10*F3</f>
         <v>20.360627118680316</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(H9:H10)</f>
+        <v>9.11</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(I9:I10)</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(J9:J10)</f>
+        <v>8.26</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K9:K10)</f>
+        <v>7.98</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(L9:L10)</f>
+        <v>7.585</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(M9:M10)</f>
+        <v>7.2750000000000004</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(N9:N10)</f>
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A8*A8*A9*A10*A11</f>
+        <v>2.8411583016959994</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <f>H11/8</f>
+        <v>1.1387499999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12" si="2">I11/8</f>
+        <v>1.0687500000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="3">J11/8</f>
+        <v>1.0325</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12" si="4">K11/8</f>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="5">L11/8</f>
+        <v>0.948125</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="6">M11/8</f>
+        <v>0.90937500000000004</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12" si="7">N11/8</f>
+        <v>0.84875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <f>2*PI()/H12</f>
+        <v>5.5176160765572657</v>
+      </c>
+      <c r="I13">
+        <f>2*PI()/I12</f>
+        <v>5.8790037961914257</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="8">2*PI()/J12</f>
+        <v>6.0854094984790184</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="9">2*PI()/K12</f>
+        <v>6.2989326387765274</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L14" si="10">2*PI()/L12</f>
+        <v>6.6269587946521673</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M14" si="11">2*PI()/M12</f>
+        <v>6.9093446676888917</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N14" si="12">2*PI()/N12</f>
+        <v>7.4028692868095272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>5.5176160765572657</v>
+      </c>
+      <c r="I14">
+        <v>5.8790037961914257</v>
+      </c>
+      <c r="J14">
+        <v>6.0854094984790184</v>
+      </c>
+      <c r="K14">
+        <v>6.2989326387765274</v>
+      </c>
+      <c r="L14">
+        <v>6.6269587946521673</v>
+      </c>
+      <c r="M14">
+        <v>6.9093446676888917</v>
+      </c>
+      <c r="N14">
+        <v>7.4028692868095272</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>0.025*G19+(0.03)</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="I19">
+        <v>5.0773214603471413</v>
+      </c>
+      <c r="J19">
+        <v>5.5176160765572657</v>
+      </c>
+      <c r="K19">
+        <f>SQRT(H19*m*g/(I_0*COS(10*PI()/180)) + 2*k*H19*H19*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.56409707969384859</v>
+      </c>
+      <c r="L19">
+        <f>SQRT(H19*m*g/(I_0*COS(10*PI()/180)) + 2*k*H19*H19*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.41196836722750352</v>
+      </c>
+      <c r="M19">
+        <f>(I19-J19)/2</f>
+        <v>-0.22014730810506222</v>
+      </c>
+      <c r="N19">
+        <f>(K19-L19)/2</f>
+        <v>7.6064356233172536E-2</v>
+      </c>
+      <c r="O19">
+        <f>ABS(PI()/M19)</f>
+        <v>14.270411392405089</v>
+      </c>
+      <c r="P19">
+        <f>ABS(PI()/N19)</f>
+        <v>41.301771409980176</v>
+      </c>
+      <c r="Q19">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f>0.025*G20</f>
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>5.1265152939762055</v>
+      </c>
+      <c r="J20">
+        <v>5.8790037961914257</v>
+      </c>
+      <c r="K20">
+        <f>SQRT(H20*m*g/(I_0*COS(10*PI()/180)) + 2*k*H20*H20*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.54415314974930928</v>
+      </c>
+      <c r="L20">
+        <f>SQRT(H20*m*g/(I_0*COS(10*PI()/180)) + 2*k*H20*H20*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.40177112687251865</v>
+      </c>
+      <c r="M20">
+        <f>(I20-J20)/2</f>
+        <v>-0.37624425110761006</v>
+      </c>
+      <c r="N20">
+        <f>(K20-L20)/2</f>
+        <v>7.1191011438395319E-2</v>
+      </c>
+      <c r="O20">
+        <f>ABS(PI()/M20)</f>
+        <v>8.3498754980079752</v>
+      </c>
+      <c r="P20">
+        <f>ABS(PI()/N20)</f>
+        <v>44.129063348233927</v>
+      </c>
+      <c r="Q20">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f>0.025*G21</f>
+        <v>0.125</v>
+      </c>
+      <c r="I21">
+        <v>5.1396198831734852</v>
+      </c>
+      <c r="J21">
+        <v>6.0854094984790184</v>
+      </c>
+      <c r="K21">
+        <f>SQRT(H21*m*g/(I_0*COS(10*PI()/180)) + 2*k*H21*H21*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.64309190355475077</v>
+      </c>
+      <c r="L21">
+        <f>SQRT(H21*m*g/(I_0*COS(10*PI()/180)) + 2*k*H21*H21*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.45069459191069389</v>
+      </c>
+      <c r="M21">
+        <f>(I21-J21)/2</f>
+        <v>-0.47289480765276659</v>
+      </c>
+      <c r="N21">
+        <f>(K21-L21)/2</f>
+        <v>9.6198655822028439E-2</v>
+      </c>
+      <c r="O21">
+        <f>ABS(PI()/M21)</f>
+        <v>6.6433223684210478</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P25" si="13">ABS(PI()/N21)</f>
+        <v>32.657344603669635</v>
+      </c>
+      <c r="Q21">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f>0.025*G22</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I22">
+        <v>5.016515215313043</v>
+      </c>
+      <c r="J22">
+        <v>6.2989326387765274</v>
+      </c>
+      <c r="K22">
+        <f>SQRT(H22*m*g/(I_0*COS(10*PI()/180)) + 2*k*H22*H22*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.74054526926398889</v>
+      </c>
+      <c r="L22">
+        <f>SQRT(H22*m*g/(I_0*COS(10*PI()/180)) + 2*k*H22*H22*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.49534979443166449</v>
+      </c>
+      <c r="M22">
+        <f>(I22-J22)/2</f>
+        <v>-0.64120871173174221</v>
+      </c>
+      <c r="N22">
+        <f>(K22-L22)/2</f>
+        <v>0.1225977374161622</v>
+      </c>
+      <c r="O22">
+        <f>ABS(PI()/M22)</f>
+        <v>4.8994852941176479</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="13"/>
+        <v>25.625209076457502</v>
+      </c>
+      <c r="Q22">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <f>0.025*G23</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="I23">
+        <v>5.0366214887211109</v>
+      </c>
+      <c r="J23">
+        <v>6.6269587946521673</v>
+      </c>
+      <c r="K23">
+        <f>SQRT(H23*m*g/(I_0*COS(10*PI()/180)) + 2*k*H23*H23*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.837032226749303</v>
+      </c>
+      <c r="L23">
+        <f>SQRT(H23*m*g/(I_0*COS(10*PI()/180)) + 2*k*H23*H23*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.53680298936038873</v>
+      </c>
+      <c r="M23">
+        <f>(I23-J23)/2</f>
+        <v>-0.79516865296552819</v>
+      </c>
+      <c r="N23">
+        <f>(K23-L23)/2</f>
+        <v>0.15011461869445714</v>
+      </c>
+      <c r="O23">
+        <f>ABS(PI()/M23)</f>
+        <v>3.9508507306889347</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="13"/>
+        <v>20.927959454662986</v>
+      </c>
+      <c r="Q23">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f>0.025*G24</f>
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>4.9841826928544064</v>
+      </c>
+      <c r="J24">
+        <v>6.9093446676888917</v>
+      </c>
+      <c r="K24">
+        <f>SQRT(H24*m*g/(I_0*COS(10*PI()/180)) + 2*k*H24*H24*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>0.93285269725747244</v>
+      </c>
+      <c r="L24">
+        <f>SQRT(H24*m*g/(I_0*COS(10*PI()/180)) + 2*k*H24*H24*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.57574621736127707</v>
+      </c>
+      <c r="M24">
+        <f>(I24-J24)/2</f>
+        <v>-0.96258098741724263</v>
+      </c>
+      <c r="N24">
+        <f>(K24-L24)/2</f>
+        <v>0.17855323994809769</v>
+      </c>
+      <c r="O24">
+        <f>ABS(PI()/M24)</f>
+        <v>3.2637177491103206</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="13"/>
+        <v>17.594710992099607</v>
+      </c>
+      <c r="Q24">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <f>0.025*G25</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I25">
+        <v>4.9595937303834923</v>
+      </c>
+      <c r="J25">
+        <v>7.4028692868095272</v>
+      </c>
+      <c r="K25">
+        <f>SQRT(H25*m*g/(I_0*COS(10*PI()/180)) + 2*k*H25*H25*COS(10*PI()/180)*COS(10*PI()/180)/I_0)</f>
+        <v>1.0281930335886391</v>
+      </c>
+      <c r="L25">
+        <f>SQRT(H25*m*g/(I_0*COS(10*PI()/180)) + 2*k*H25*H25*SIN(10*PI()/180)*SIN(10*PI()/180)/I_0)</f>
+        <v>0.61265829881117284</v>
+      </c>
+      <c r="M25">
+        <f>(I25-J25)/2</f>
+        <v>-1.2216377782130174</v>
+      </c>
+      <c r="N25">
+        <f>(K25-L25)/2</f>
+        <v>0.20776736738873314</v>
+      </c>
+      <c r="O25">
+        <f>ABS(PI()/M25)</f>
+        <v>2.5716236920777287</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>15.120722243699932</v>
+      </c>
+      <c r="Q25">
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
